--- a/Code/Results/Cases/Case_1_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_128/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06069911638191883</v>
+        <v>0.01842893888063202</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09669252437960552</v>
+        <v>0.07997195081330233</v>
       </c>
       <c r="E2">
-        <v>1.438594415143299</v>
+        <v>0.4080488715892159</v>
       </c>
       <c r="F2">
-        <v>3.478241106475224</v>
+        <v>2.160681686102549</v>
       </c>
       <c r="G2">
-        <v>0.0007702075242028705</v>
+        <v>0.002470119895837944</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8967969522138262</v>
+        <v>0.8127539948200422</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.38213763485868</v>
+        <v>1.474961274610394</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05456525553154279</v>
+        <v>0.0162820418710794</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08997280484278747</v>
+        <v>0.07819488545445807</v>
       </c>
       <c r="E3">
-        <v>1.221824595653246</v>
+        <v>0.3556212550602567</v>
       </c>
       <c r="F3">
-        <v>3.066904100894078</v>
+        <v>2.063974498097792</v>
       </c>
       <c r="G3">
-        <v>0.000781790104118274</v>
+        <v>0.002476569284796371</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8392801197966548</v>
+        <v>0.7977638552574149</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.745412658608757</v>
+        <v>1.323869618261085</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05068857266989113</v>
+        <v>0.01496719093466936</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0860993188367587</v>
+        <v>0.07713004808464063</v>
       </c>
       <c r="E4">
-        <v>1.093479829071583</v>
+        <v>0.3235871875810261</v>
       </c>
       <c r="F4">
-        <v>2.823438991141074</v>
+        <v>2.005791947699009</v>
       </c>
       <c r="G4">
-        <v>0.0007890057482004794</v>
+        <v>0.002480726453144666</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8054737322281937</v>
+        <v>0.7887752440649294</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.365078927132117</v>
+        <v>1.232019525583439</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04908366626489169</v>
+        <v>0.01443239619419501</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08457545570825431</v>
+        <v>0.07670255432707052</v>
       </c>
       <c r="E5">
-        <v>1.042163248399433</v>
+        <v>0.3105689625498229</v>
       </c>
       <c r="F5">
-        <v>2.72619156592134</v>
+        <v>1.982377654601379</v>
       </c>
       <c r="G5">
-        <v>0.0007919770001915301</v>
+        <v>0.002482470334495334</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.792030894880476</v>
+        <v>0.7851655365629995</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.212311856454335</v>
+        <v>1.194815124894319</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04881572740793416</v>
+        <v>0.01434366054633784</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08432548138812734</v>
+        <v>0.07663195297798353</v>
       </c>
       <c r="E6">
-        <v>1.033696079944932</v>
+        <v>0.3084093646869661</v>
       </c>
       <c r="F6">
-        <v>2.710153847898482</v>
+        <v>1.978507430268621</v>
       </c>
       <c r="G6">
-        <v>0.0007924723617987512</v>
+        <v>0.002482762918867586</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7898176228735991</v>
+        <v>0.7845693346549893</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.187067203912022</v>
+        <v>1.188650786295</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05066702677930124</v>
+        <v>0.01495997415275951</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08607855719834134</v>
+        <v>0.07712425692403002</v>
       </c>
       <c r="E7">
-        <v>1.092784023558139</v>
+        <v>0.3234114783872144</v>
       </c>
       <c r="F7">
-        <v>2.822119911007434</v>
+        <v>2.005474984412587</v>
       </c>
       <c r="G7">
-        <v>0.000789045688996355</v>
+        <v>0.002480749769916323</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8052911438282635</v>
+        <v>0.7887263480192104</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.363010209911238</v>
+        <v>1.231516870178268</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05860877711705825</v>
+        <v>0.01768809675392902</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09431742647101515</v>
+        <v>0.07935365675033523</v>
       </c>
       <c r="E8">
-        <v>1.362729051433561</v>
+        <v>0.3899371777388438</v>
       </c>
       <c r="F8">
-        <v>3.334317254141922</v>
+        <v>2.127085632980851</v>
       </c>
       <c r="G8">
-        <v>0.0007741826591763466</v>
+        <v>0.002472302839597137</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8766224848174318</v>
+        <v>0.8075401187824909</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.160101875747728</v>
+        <v>1.422669895991817</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07316895963569436</v>
+        <v>0.02305713625050743</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1129566634240504</v>
+        <v>0.08394221359944254</v>
       </c>
       <c r="E9">
-        <v>1.941300545884104</v>
+        <v>0.5218022583690072</v>
       </c>
       <c r="F9">
-        <v>4.4280148986889</v>
+        <v>2.375303366918217</v>
       </c>
       <c r="G9">
-        <v>0.0007456098977562722</v>
+        <v>0.00245729364122482</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.030893673758897</v>
+        <v>0.8461872881795003</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.831479970135092</v>
+        <v>1.805133970932388</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08302092997457322</v>
+        <v>0.02700391582787631</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1289998560207124</v>
+        <v>0.08745719107415084</v>
       </c>
       <c r="E10">
-        <v>2.416668330440245</v>
+        <v>0.6197821132993795</v>
       </c>
       <c r="F10">
-        <v>5.315118976011917</v>
+        <v>2.563974407367397</v>
       </c>
       <c r="G10">
-        <v>0.000724537631708983</v>
+        <v>0.002447200928893857</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.157067637347652</v>
+        <v>0.8757146855362521</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.166767008467275</v>
+        <v>2.091232604743936</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.08725368664059374</v>
+        <v>0.02879787928779365</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1370618534921988</v>
+        <v>0.08909003739431398</v>
       </c>
       <c r="E11">
-        <v>2.650111303368604</v>
+        <v>0.6646478438530323</v>
       </c>
       <c r="F11">
-        <v>5.745406798698809</v>
+        <v>2.651257030991701</v>
       </c>
       <c r="G11">
-        <v>0.0007148065678958542</v>
+        <v>0.00244280949881089</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.218426357022295</v>
+        <v>0.889407722419719</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.809815476097754</v>
+        <v>2.222598193319698</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.08881357857023175</v>
+        <v>0.02947682593018186</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.140253165255487</v>
+        <v>0.08971343087152661</v>
       </c>
       <c r="E12">
-        <v>2.741700314921999</v>
+        <v>0.6816839433008823</v>
       </c>
       <c r="F12">
-        <v>5.913132235258303</v>
+        <v>2.684524376585813</v>
       </c>
       <c r="G12">
-        <v>0.0007110866994550769</v>
+        <v>0.002441175081994247</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.242357873869068</v>
+        <v>0.8946315370181992</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.059803254385429</v>
+        <v>2.272526176546762</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.08847967177730709</v>
+        <v>0.02933062275976539</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1395591604547377</v>
+        <v>0.0895789432177736</v>
       </c>
       <c r="E13">
-        <v>2.721819405327096</v>
+        <v>0.6780127833470431</v>
       </c>
       <c r="F13">
-        <v>5.876779150410556</v>
+        <v>2.677349984854345</v>
       </c>
       <c r="G13">
-        <v>0.0007118896576157973</v>
+        <v>0.002441525817666091</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.237170469684827</v>
+        <v>0.8935047633977291</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.005650205250106</v>
+        <v>2.261765044607557</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.08738292819615623</v>
+        <v>0.0288537454511868</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1373214381576275</v>
+        <v>0.0891412215818832</v>
       </c>
       <c r="E14">
-        <v>2.657577601816939</v>
+        <v>0.6660484597415177</v>
       </c>
       <c r="F14">
-        <v>5.759103525515854</v>
+        <v>2.653989605310699</v>
       </c>
       <c r="G14">
-        <v>0.0007145013258603862</v>
+        <v>0.002442674463975258</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.220380425481309</v>
+        <v>0.8898367099889413</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.830243201030271</v>
+        <v>2.226702093263896</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.08670530405167653</v>
+        <v>0.02856158841015599</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1359697778584916</v>
+        <v>0.08887377070608693</v>
       </c>
       <c r="E15">
-        <v>2.618667840232249</v>
+        <v>0.6587261352453737</v>
       </c>
       <c r="F15">
-        <v>5.687678921047677</v>
+        <v>2.639708919709051</v>
       </c>
       <c r="G15">
-        <v>0.0007160960196097818</v>
+        <v>0.002443381751350948</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.210191003057062</v>
+        <v>0.887594974062111</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.723691519338217</v>
+        <v>2.205249041868854</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08273872541482774</v>
+        <v>0.02688663155195314</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1284906246204827</v>
+        <v>0.08735117922358882</v>
       </c>
       <c r="E16">
-        <v>2.401814980919156</v>
+        <v>0.6168563019884346</v>
       </c>
       <c r="F16">
-        <v>5.287611813278033</v>
+        <v>2.558300079991682</v>
       </c>
       <c r="G16">
-        <v>0.0007251695381133605</v>
+        <v>0.002447491921845158</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.153147569885022</v>
+        <v>0.8748251519306933</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.125567284886017</v>
+        <v>2.082672702911907</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08023700486046437</v>
+        <v>0.02585860069854817</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1241160607415139</v>
+        <v>0.08642593380092478</v>
       </c>
       <c r="E17">
-        <v>2.273635958373887</v>
+        <v>0.5912487656775625</v>
       </c>
       <c r="F17">
-        <v>5.049630920962073</v>
+        <v>2.508735379000655</v>
       </c>
       <c r="G17">
-        <v>0.0007306897448746905</v>
+        <v>0.002450064402774954</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.119249034552396</v>
+        <v>0.8670588361397051</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.768622429167408</v>
+        <v>2.007793332499546</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0787751610871581</v>
+        <v>0.02526717913245591</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1216697378850711</v>
+        <v>0.08589693250874575</v>
       </c>
       <c r="E18">
-        <v>2.201476550196418</v>
+        <v>0.5765474280154734</v>
       </c>
       <c r="F18">
-        <v>4.915199680807291</v>
+        <v>2.480363677275591</v>
       </c>
       <c r="G18">
-        <v>0.0007338521741403371</v>
+        <v>0.002451562844080452</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.100115304265969</v>
+        <v>0.8626163483981344</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.566571545098157</v>
+        <v>1.964838868454876</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.078276461168997</v>
+        <v>0.02506691792333271</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1208526954206093</v>
+        <v>0.08571836109283026</v>
       </c>
       <c r="E19">
-        <v>2.17729488169735</v>
+        <v>0.5715743967279963</v>
       </c>
       <c r="F19">
-        <v>4.870079219551485</v>
+        <v>2.47078078584687</v>
       </c>
       <c r="G19">
-        <v>0.000734921118120628</v>
+        <v>0.002452073428644727</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.093696046825741</v>
+        <v>0.8611163731923668</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.498683582300885</v>
+        <v>1.950314606694349</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.08050573602645272</v>
+        <v>0.02596805062689356</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.124574332794694</v>
+        <v>0.08652409767562119</v>
       </c>
       <c r="E20">
-        <v>2.287114232107641</v>
+        <v>0.5939718621996377</v>
       </c>
       <c r="F20">
-        <v>5.07470484956238</v>
+        <v>2.513997444653256</v>
       </c>
       <c r="G20">
-        <v>0.0007301035087585626</v>
+        <v>0.002449788611757633</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.1228191152899</v>
+        <v>0.8678830313844799</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.806274261192868</v>
+        <v>2.01575249911474</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.08770630015891356</v>
+        <v>0.02899382785059146</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.137974687062993</v>
+        <v>0.0892696518253473</v>
       </c>
       <c r="E21">
-        <v>2.676353646814832</v>
+        <v>0.6695613784808643</v>
       </c>
       <c r="F21">
-        <v>5.793529150510125</v>
+        <v>2.660845222765033</v>
       </c>
       <c r="G21">
-        <v>0.0007137352942109047</v>
+        <v>0.002442336306481171</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.225292006248822</v>
+        <v>0.8909130513293064</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.881576026800985</v>
+        <v>2.236995912771704</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.09215715524572232</v>
+        <v>0.03096900120673496</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1475590852332829</v>
+        <v>0.09109367747649344</v>
       </c>
       <c r="E22">
-        <v>2.949837705093017</v>
+        <v>0.7192360536668048</v>
       </c>
       <c r="F22">
-        <v>6.291841451686423</v>
+        <v>2.758076622350558</v>
       </c>
       <c r="G22">
-        <v>0.0007028246243320913</v>
+        <v>0.002437631946538008</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.296406107523978</v>
+        <v>0.906189743929886</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.623031985090222</v>
+        <v>2.382659755445559</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.08980785216114384</v>
+        <v>0.02991508816180044</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1423563716496545</v>
+        <v>0.09011738088133825</v>
       </c>
       <c r="E23">
-        <v>2.801830040108456</v>
+        <v>0.6926974207504628</v>
       </c>
       <c r="F23">
-        <v>6.022894704035565</v>
+        <v>2.706065266965197</v>
       </c>
       <c r="G23">
-        <v>0.0007086730492698035</v>
+        <v>0.002440127617781839</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.258021596109231</v>
+        <v>0.8980153273790421</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.223213658262978</v>
+        <v>2.304815906631575</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08038431556943948</v>
+        <v>0.02591856952452076</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1243669361423514</v>
+        <v>0.08647970866188359</v>
       </c>
       <c r="E24">
-        <v>2.281015982444757</v>
+        <v>0.5927406858592406</v>
       </c>
       <c r="F24">
-        <v>5.063361558549587</v>
+        <v>2.511618079914001</v>
       </c>
       <c r="G24">
-        <v>0.0007303685800252868</v>
+        <v>0.00244991323593776</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.121203985202015</v>
+        <v>0.8675103428021913</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.789242118050936</v>
+        <v>2.012153865538892</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.06935959217202026</v>
+        <v>0.02160360523298266</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1075728518469177</v>
+        <v>0.08267649308824332</v>
       </c>
       <c r="E25">
-        <v>1.777690259073694</v>
+        <v>0.4859539798657124</v>
       </c>
       <c r="F25">
-        <v>4.1199120313116</v>
+        <v>2.307073544936117</v>
       </c>
       <c r="G25">
-        <v>0.000753317439389559</v>
+        <v>0.002461188930882586</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9872437150510081</v>
+        <v>0.8355378675724481</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>5.363965782577679</v>
+        <v>1.700805229751381</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_128/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01842893888063202</v>
+        <v>0.06069911638203251</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07997195081330233</v>
+        <v>0.0966925243797121</v>
       </c>
       <c r="E2">
-        <v>0.4080488715892159</v>
+        <v>1.438594415143299</v>
       </c>
       <c r="F2">
-        <v>2.160681686102549</v>
+        <v>3.478241106475224</v>
       </c>
       <c r="G2">
-        <v>0.002470119895837944</v>
+        <v>0.0007702075241440139</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8127539948200422</v>
+        <v>0.8967969522138262</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.474961274610394</v>
+        <v>4.382137634858623</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0162820418710794</v>
+        <v>0.05456525553165648</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07819488545445807</v>
+        <v>0.08997280484301484</v>
       </c>
       <c r="E3">
-        <v>0.3556212550602567</v>
+        <v>1.221824595653217</v>
       </c>
       <c r="F3">
-        <v>2.063974498097792</v>
+        <v>3.066904100894078</v>
       </c>
       <c r="G3">
-        <v>0.002476569284796371</v>
+        <v>0.0007817901041062836</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7977638552574149</v>
+        <v>0.8392801197966335</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.323869618261085</v>
+        <v>3.745412658608814</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01496719093466936</v>
+        <v>0.05068857266971349</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07713004808464063</v>
+        <v>0.08609931883661659</v>
       </c>
       <c r="E4">
-        <v>0.3235871875810261</v>
+        <v>1.093479829071612</v>
       </c>
       <c r="F4">
-        <v>2.005791947699009</v>
+        <v>2.823438991141074</v>
       </c>
       <c r="G4">
-        <v>0.002480726453144666</v>
+        <v>0.0007890057481428107</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7887752440649294</v>
+        <v>0.8054737322281937</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.232019525583439</v>
+        <v>3.365078927132117</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01443239619419501</v>
+        <v>0.0490836662648988</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07670255432707052</v>
+        <v>0.08457545570826142</v>
       </c>
       <c r="E5">
-        <v>0.3105689625498229</v>
+        <v>1.042163248399476</v>
       </c>
       <c r="F5">
-        <v>1.982377654601379</v>
+        <v>2.72619156592134</v>
       </c>
       <c r="G5">
-        <v>0.002482470334495334</v>
+        <v>0.0007919770003117171</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7851655365629995</v>
+        <v>0.7920308948805044</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.194815124894319</v>
+        <v>3.212311856454392</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01434366054633784</v>
+        <v>0.04881572740779916</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07663195297798353</v>
+        <v>0.08432548138813445</v>
       </c>
       <c r="E6">
-        <v>0.3084093646869661</v>
+        <v>1.03369607994496</v>
       </c>
       <c r="F6">
-        <v>1.978507430268621</v>
+        <v>2.710153847898482</v>
       </c>
       <c r="G6">
-        <v>0.002482762918867586</v>
+        <v>0.0007924723617971969</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7845693346549893</v>
+        <v>0.789817622873592</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.188650786295</v>
+        <v>3.187067203912022</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01495997415275951</v>
+        <v>0.05066702677935098</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07712425692403002</v>
+        <v>0.08607855719821345</v>
       </c>
       <c r="E7">
-        <v>0.3234114783872144</v>
+        <v>1.092784023558181</v>
       </c>
       <c r="F7">
-        <v>2.005474984412587</v>
+        <v>2.822119911007462</v>
       </c>
       <c r="G7">
-        <v>0.002480749769916323</v>
+        <v>0.0007890456889956712</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7887263480192104</v>
+        <v>0.8052911438282635</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.231516870178268</v>
+        <v>3.363010209911238</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01768809675392902</v>
+        <v>0.05860877711706536</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07935365675033523</v>
+        <v>0.09431742647100805</v>
       </c>
       <c r="E8">
-        <v>0.3899371777388438</v>
+        <v>1.36272905143359</v>
       </c>
       <c r="F8">
-        <v>2.127085632980851</v>
+        <v>3.334317254141894</v>
       </c>
       <c r="G8">
-        <v>0.002472302839597137</v>
+        <v>0.0007741826592442923</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8075401187824909</v>
+        <v>0.8766224848174247</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.422669895991817</v>
+        <v>4.160101875747785</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02305713625050743</v>
+        <v>0.0731689596356091</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08394221359944254</v>
+        <v>0.1129566634243275</v>
       </c>
       <c r="E9">
-        <v>0.5218022583690072</v>
+        <v>1.941300545883962</v>
       </c>
       <c r="F9">
-        <v>2.375303366918217</v>
+        <v>4.428014898688929</v>
       </c>
       <c r="G9">
-        <v>0.00245729364122482</v>
+        <v>0.0007456098977502769</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8461872881795003</v>
+        <v>1.030893673758904</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.805133970932388</v>
+        <v>5.831479970135092</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02700391582787631</v>
+        <v>0.08302092997475796</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08745719107415084</v>
+        <v>0.1289998560205134</v>
       </c>
       <c r="E10">
-        <v>0.6197821132993795</v>
+        <v>2.41666833044026</v>
       </c>
       <c r="F10">
-        <v>2.563974407367397</v>
+        <v>5.315118976011945</v>
       </c>
       <c r="G10">
-        <v>0.002447200928893857</v>
+        <v>0.0007245376318441831</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8757146855362521</v>
+        <v>1.157067637347652</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.091232604743936</v>
+        <v>7.166767008467446</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02879787928779365</v>
+        <v>0.0872536866405369</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08909003739431398</v>
+        <v>0.137061853492213</v>
       </c>
       <c r="E11">
-        <v>0.6646478438530323</v>
+        <v>2.650111303368575</v>
       </c>
       <c r="F11">
-        <v>2.651257030991701</v>
+        <v>5.745406798698752</v>
       </c>
       <c r="G11">
-        <v>0.00244280949881089</v>
+        <v>0.0007148065678965754</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.889407722419719</v>
+        <v>1.218426357022267</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.222598193319698</v>
+        <v>7.80981547609764</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02947682593018186</v>
+        <v>0.08881357857025307</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08971343087152661</v>
+        <v>0.1402531652554728</v>
       </c>
       <c r="E12">
-        <v>0.6816839433008823</v>
+        <v>2.741700314921957</v>
       </c>
       <c r="F12">
-        <v>2.684524376585813</v>
+        <v>5.913132235258303</v>
       </c>
       <c r="G12">
-        <v>0.002441175081994247</v>
+        <v>0.000711086699455965</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8946315370181992</v>
+        <v>1.242357873869068</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.272526176546762</v>
+        <v>8.059803254385258</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.02933062275976539</v>
+        <v>0.08847967177743499</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0895789432177736</v>
+        <v>0.1395591604545388</v>
       </c>
       <c r="E13">
-        <v>0.6780127833470431</v>
+        <v>2.72181940532721</v>
       </c>
       <c r="F13">
-        <v>2.677349984854345</v>
+        <v>5.876779150410584</v>
       </c>
       <c r="G13">
-        <v>0.002441525817666091</v>
+        <v>0.000711889657558384</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8935047633977291</v>
+        <v>1.237170469684827</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.261765044607557</v>
+        <v>8.005650205250163</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0288537454511868</v>
+        <v>0.08738292819628413</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0891412215818832</v>
+        <v>0.1373214381578265</v>
       </c>
       <c r="E14">
-        <v>0.6660484597415177</v>
+        <v>2.657577601816925</v>
       </c>
       <c r="F14">
-        <v>2.653989605310699</v>
+        <v>5.759103525515911</v>
       </c>
       <c r="G14">
-        <v>0.002442674463975258</v>
+        <v>0.000714501325945759</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8898367099889413</v>
+        <v>1.220380425481309</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.226702093263896</v>
+        <v>7.830243201030385</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02856158841015599</v>
+        <v>0.0867053040517618</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08887377070608693</v>
+        <v>0.1359697778586622</v>
       </c>
       <c r="E15">
-        <v>0.6587261352453737</v>
+        <v>2.618667840232163</v>
       </c>
       <c r="F15">
-        <v>2.639708919709051</v>
+        <v>5.687678921047649</v>
       </c>
       <c r="G15">
-        <v>0.002443381751350948</v>
+        <v>0.0007160960195230067</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.887594974062111</v>
+        <v>1.210191003057048</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.205249041868854</v>
+        <v>7.723691519338161</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02688663155195314</v>
+        <v>0.08273872541476379</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08735117922358882</v>
+        <v>0.1284906246204116</v>
       </c>
       <c r="E16">
-        <v>0.6168563019884346</v>
+        <v>2.401814980919212</v>
       </c>
       <c r="F16">
-        <v>2.558300079991682</v>
+        <v>5.28761181327809</v>
       </c>
       <c r="G16">
-        <v>0.002447491921845158</v>
+        <v>0.0007251695381631507</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8748251519306933</v>
+        <v>1.153147569885036</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.082672702911907</v>
+        <v>7.125567284886074</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02585860069854817</v>
+        <v>0.08023700486045016</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08642593380092478</v>
+        <v>0.1241160607412866</v>
       </c>
       <c r="E17">
-        <v>0.5912487656775625</v>
+        <v>2.27363595837393</v>
       </c>
       <c r="F17">
-        <v>2.508735379000655</v>
+        <v>5.049630920962102</v>
       </c>
       <c r="G17">
-        <v>0.002450064402774954</v>
+        <v>0.000730689744707935</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8670588361397051</v>
+        <v>1.119249034552396</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.007793332499546</v>
+        <v>6.768622429167579</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.02526717913245591</v>
+        <v>0.07877516108709415</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.08589693250874575</v>
+        <v>0.1216697378858242</v>
       </c>
       <c r="E18">
-        <v>0.5765474280154734</v>
+        <v>2.201476550196517</v>
       </c>
       <c r="F18">
-        <v>2.480363677275591</v>
+        <v>4.915199680807262</v>
       </c>
       <c r="G18">
-        <v>0.002451562844080452</v>
+        <v>0.0007338521742215054</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8626163483981344</v>
+        <v>1.100115304265969</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.964838868454876</v>
+        <v>6.566571545098157</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.02506691792333271</v>
+        <v>0.07827646116896858</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08571836109283026</v>
+        <v>0.1208526954205951</v>
       </c>
       <c r="E19">
-        <v>0.5715743967279963</v>
+        <v>2.177294881697321</v>
       </c>
       <c r="F19">
-        <v>2.47078078584687</v>
+        <v>4.870079219551485</v>
       </c>
       <c r="G19">
-        <v>0.002452073428644727</v>
+        <v>0.0007349211180349188</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8611163731923668</v>
+        <v>1.093696046825741</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.950314606694349</v>
+        <v>6.498683582300941</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.02596805062689356</v>
+        <v>0.08050573602660904</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08652409767562119</v>
+        <v>0.1245743327944098</v>
       </c>
       <c r="E20">
-        <v>0.5939718621996377</v>
+        <v>2.287114232107612</v>
       </c>
       <c r="F20">
-        <v>2.513997444653256</v>
+        <v>5.074704849562437</v>
       </c>
       <c r="G20">
-        <v>0.002449788611757633</v>
+        <v>0.0007301035087575062</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8678830313844799</v>
+        <v>1.122819115289886</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.01575249911474</v>
+        <v>6.806274261193096</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.02899382785059146</v>
+        <v>0.08770630015886383</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0892696518253473</v>
+        <v>0.1379746870632204</v>
       </c>
       <c r="E21">
-        <v>0.6695613784808643</v>
+        <v>2.67635364681486</v>
       </c>
       <c r="F21">
-        <v>2.660845222765033</v>
+        <v>5.793529150510068</v>
       </c>
       <c r="G21">
-        <v>0.002442336306481171</v>
+        <v>0.0007137352943548769</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8909130513293064</v>
+        <v>1.225292006248807</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.236995912771704</v>
+        <v>7.881576026801099</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.03096900120673496</v>
+        <v>0.09215715524560864</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09109367747649344</v>
+        <v>0.147559085233226</v>
       </c>
       <c r="E22">
-        <v>0.7192360536668048</v>
+        <v>2.949837705093103</v>
       </c>
       <c r="F22">
-        <v>2.758076622350558</v>
+        <v>6.291841451686395</v>
       </c>
       <c r="G22">
-        <v>0.002437631946538008</v>
+        <v>0.0007028246244728791</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.906189743929886</v>
+        <v>1.296406107523964</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.382659755445559</v>
+        <v>8.623031985090222</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.02991508816180044</v>
+        <v>0.08980785216104437</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09011738088133825</v>
+        <v>0.1423563716496545</v>
       </c>
       <c r="E23">
-        <v>0.6926974207504628</v>
+        <v>2.801830040108428</v>
       </c>
       <c r="F23">
-        <v>2.706065266965197</v>
+        <v>6.022894704035593</v>
       </c>
       <c r="G23">
-        <v>0.002440127617781839</v>
+        <v>0.000708673049266327</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8980153273790421</v>
+        <v>1.258021596109231</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.304815906631575</v>
+        <v>8.223213658262864</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.02591856952452076</v>
+        <v>0.08038431556943948</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08647970866188359</v>
+        <v>0.1243669361423798</v>
       </c>
       <c r="E24">
-        <v>0.5927406858592406</v>
+        <v>2.281015982444757</v>
       </c>
       <c r="F24">
-        <v>2.511618079914001</v>
+        <v>5.063361558549587</v>
       </c>
       <c r="G24">
-        <v>0.00244991323593776</v>
+        <v>0.000730368579887365</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8675103428021913</v>
+        <v>1.121203985202015</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.012153865538892</v>
+        <v>6.789242118050993</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.02160360523298266</v>
+        <v>0.06935959217208421</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08267649308824332</v>
+        <v>0.1075728518467471</v>
       </c>
       <c r="E25">
-        <v>0.4859539798657124</v>
+        <v>1.777690259073751</v>
       </c>
       <c r="F25">
-        <v>2.307073544936117</v>
+        <v>4.119912031311628</v>
       </c>
       <c r="G25">
-        <v>0.002461188930882586</v>
+        <v>0.0007533174393398059</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8355378675724481</v>
+        <v>0.9872437150510009</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.700805229751381</v>
+        <v>5.363965782577679</v>
       </c>
       <c r="L25">
         <v>0</v>
